--- a/biology/Zoologie/Ariadna_bicolor/Ariadna_bicolor.xlsx
+++ b/biology/Zoologie/Ariadna_bicolor/Ariadna_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna bicolor est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna bicolor est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Canada en Ontario ;
 aux États-Unis au Maine, au Massachusetts, au Connecticut, dans l'État de New York, au New Jersey, en Pennsylvanie, au Maryland, en Virginie, en Virginie-Occidentale, en Ohio, en Indiana, en Illinois, au Missouri, au Kentucky, au Tennessee, en Caroline du Nord, en Géorgie, en Floride, en Alabama, au Mississippi, en Louisiane, en Arkansas, en Oklahoma, au Texas, au Colorado, au Nouveau-Mexique, en Arizona et en Californie ;
 au Mexique au Sonora, en Basse-Californie et en Basse-Californie du Sud.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Giroti et Brescovit en 2018 mesure 5,6 mm et la femelle 10,0 mm, les mâles mesurent de 5,2 à 7,36 mm et les femelles de 7,68 à 10,48 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Giroti et Brescovit en 2018 mesure 5,6 mm et la femelle 10,0 mm, les mâles mesurent de 5,2 à 7,36 mm et les femelles de 7,68 à 10,48 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hentz, 1842 : Descriptions and figures of the araneides of the United States. Boston journal of natural history, vol. 4, p. 54-57 &amp; 223-231 (texte intégral).</t>
         </is>
